--- a/Finflux Automation Excels/Client/4210-RBI-EI-DB-DL-REC-CTRFD-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/4210-RBI-EI-DB-DL-REC-CTRFD-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -199,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -373,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +411,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1884,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
